--- a/data/trans_orig/IMC_CAT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IMC_CAT-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grado de obesidad del entrevistado en País Vasco</t>
+          <t>Grado de obesidad del entrevistado en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3061,7 +3061,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grado de obesidad del entrevistado en Andalucia</t>
+          <t>Grado de obesidad del entrevistado en Andalucia (tasa de respuesta: 96,4%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5576,7 +5576,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grado de obesidad del entrevistado en C.Valenciana</t>
+          <t>Grado de obesidad del entrevistado en C.Valenciana (tasa de respuesta: 98,07%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8091,7 +8091,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grado de obesidad del entrevistado en Barcelona</t>
+          <t>Grado de obesidad del entrevistado en Barcelona (tasa de respuesta: 94,22%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC_CAT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IMC_CAT-Estudios-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8360</t>
+          <t>12041</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6295</t>
+          <t>8109</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11119</t>
+          <t>16582</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14237</t>
+          <t>24856</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11179</t>
+          <t>19301</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>17149</t>
+          <t>31410</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>22597</t>
+          <t>36898</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>18797</t>
+          <t>30312</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>26810</t>
+          <t>44500</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>19,49%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>23,5%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22583</t>
+          <t>38366</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19385</t>
+          <t>33081</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25544</t>
+          <t>44652</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,65%</t>
+          <t>52,55%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,05%</t>
+          <t>45,31%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>60,68%</t>
+          <t>61,16%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26599</t>
+          <t>43012</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23022</t>
+          <t>36379</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30297</t>
+          <t>50085</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>38,17%</t>
+          <t>36,97%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>33,04%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>43,48%</t>
+          <t>43,05%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>49182</t>
+          <t>81378</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>44184</t>
+          <t>73258</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>53609</t>
+          <t>91068</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>44,0%</t>
+          <t>42,98%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>39,53%</t>
+          <t>38,69%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>47,96%</t>
+          <t>48,09%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11056</t>
+          <t>22591</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8679</t>
+          <t>17330</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13634</t>
+          <t>27819</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>30,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>38,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27450</t>
+          <t>46445</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23967</t>
+          <t>39457</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>31017</t>
+          <t>52619</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>39,39%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>33,91%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>44,51%</t>
+          <t>45,22%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>38506</t>
+          <t>69036</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>34391</t>
+          <t>59777</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>43132</t>
+          <t>77164</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>30,77%</t>
+          <t>31,57%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>38,59%</t>
+          <t>40,75%</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1085,12 +1085,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1110,32 +1110,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1396</t>
+          <t>2036</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>794</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2981</t>
+          <t>5061</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>1492</t>
+          <t>2041</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>777</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>3128</t>
+          <t>5317</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,81%</t>
         </is>
       </c>
     </row>
@@ -1188,17 +1188,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>42096</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42096</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42096</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1223,17 +1223,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>69682</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>69682</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>69682</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>111778</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>111778</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>111778</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1305,32 +1305,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43432</t>
+          <t>79993</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38491</t>
+          <t>69172</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>49259</t>
+          <t>92461</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>32489</t>
+          <t>63630</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28009</t>
+          <t>55272</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>37309</t>
+          <t>74158</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>75921</t>
+          <t>143623</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>68752</t>
+          <t>128485</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>82627</t>
+          <t>158774</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>17,29%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>99221</t>
+          <t>204657</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>92804</t>
+          <t>188613</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>106017</t>
+          <t>220045</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>43,44%</t>
+          <t>43,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>40,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>46,42%</t>
+          <t>47,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>72912</t>
+          <t>137580</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>66777</t>
+          <t>124162</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>78943</t>
+          <t>150977</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>31,21%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>28,58%</t>
+          <t>27,52%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>33,47%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>172133</t>
+          <t>342237</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>163896</t>
+          <t>322669</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>182508</t>
+          <t>363419</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>37,26%</t>
+          <t>37,27%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>35,47%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>39,57%</t>
         </is>
       </c>
     </row>
@@ -1531,32 +1531,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83678</t>
+          <t>179171</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76686</t>
+          <t>164411</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>89954</t>
+          <t>195062</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,64%</t>
+          <t>38,35%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>35,19%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>41,75%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1566,32 +1566,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>122534</t>
+          <t>238946</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>116649</t>
+          <t>224582</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>129884</t>
+          <t>254270</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>52,45%</t>
+          <t>52,97%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>49,93%</t>
+          <t>49,78%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>55,6%</t>
+          <t>56,36%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1601,32 +1601,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>206212</t>
+          <t>418117</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>196992</t>
+          <t>395601</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>215894</t>
+          <t>438779</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>44,63%</t>
+          <t>45,53%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>42,64%</t>
+          <t>43,08%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>46,73%</t>
+          <t>47,78%</t>
         </is>
       </c>
     </row>
@@ -1644,32 +1644,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>3377</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>1675</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3929</t>
+          <t>6445</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1679,17 +1679,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5686</t>
+          <t>10958</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>3977</t>
+          <t>7252</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>8030</t>
+          <t>16497</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1699,12 +1699,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1714,32 +1714,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>7753</t>
+          <t>14336</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>5455</t>
+          <t>10248</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>10341</t>
+          <t>20139</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,19%</t>
         </is>
       </c>
     </row>
@@ -1757,17 +1757,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>228398</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>228398</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>228398</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>233621</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>233621</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>233621</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1827,17 +1827,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>462019</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>462019</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>462019</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7801</t>
+          <t>19196</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5604</t>
+          <t>13661</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10278</t>
+          <t>26482</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12161</t>
+          <t>24408</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>9807</t>
+          <t>18796</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>15374</t>
+          <t>32140</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>19962</t>
+          <t>43604</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>16257</t>
+          <t>34807</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>23866</t>
+          <t>52862</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>11,54%</t>
         </is>
       </c>
     </row>
@@ -1987,32 +1987,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28319</t>
+          <t>72096</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24692</t>
+          <t>61207</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32666</t>
+          <t>82859</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>34,67%</t>
+          <t>35,02%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>29,73%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>39,99%</t>
+          <t>40,25%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2022,32 +2022,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23538</t>
+          <t>57349</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20126</t>
+          <t>48266</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>27071</t>
+          <t>67903</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2057,32 +2057,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>51857</t>
+          <t>129445</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>47175</t>
+          <t>115488</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>57442</t>
+          <t>145338</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>28,25%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>25,2%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>30,29%</t>
+          <t>31,72%</t>
         </is>
       </c>
     </row>
@@ -2100,32 +2100,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>45140</t>
+          <t>114265</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>40929</t>
+          <t>102322</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>49020</t>
+          <t>125083</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>55,26%</t>
+          <t>55,5%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>50,1%</t>
+          <t>49,7%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>60,01%</t>
+          <t>60,76%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2135,32 +2135,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>67172</t>
+          <t>161873</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>62416</t>
+          <t>150128</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>70765</t>
+          <t>172123</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>62,23%</t>
+          <t>64,15%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>57,82%</t>
+          <t>59,49%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>65,56%</t>
+          <t>68,21%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2170,32 +2170,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>112311</t>
+          <t>276138</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>106543</t>
+          <t>259792</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>118219</t>
+          <t>292080</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>59,22%</t>
+          <t>60,26%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>56,18%</t>
+          <t>56,69%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>62,34%</t>
+          <t>63,74%</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>323</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1582</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2248,32 +2248,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5073</t>
+          <t>8725</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3500</t>
+          <t>5696</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7259</t>
+          <t>13526</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2283,32 +2283,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>5504</t>
+          <t>9047</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>3526</t>
+          <t>5974</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>7652</t>
+          <t>13401</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>2,92%</t>
         </is>
       </c>
     </row>
@@ -2326,17 +2326,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>81692</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>81692</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>81692</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2361,17 +2361,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>107944</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>107944</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>107944</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>189635</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>189635</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>189635</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2443,32 +2443,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>59594</t>
+          <t>111230</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>52780</t>
+          <t>98600</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>66358</t>
+          <t>126969</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2478,32 +2478,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>58887</t>
+          <t>112894</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>52819</t>
+          <t>100444</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>65857</t>
+          <t>128257</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2513,32 +2513,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>118481</t>
+          <t>224124</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>109462</t>
+          <t>205690</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>126550</t>
+          <t>243193</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>15,53%</t>
         </is>
       </c>
     </row>
@@ -2556,32 +2556,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>150123</t>
+          <t>315119</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>142100</t>
+          <t>295870</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>158267</t>
+          <t>335771</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>42,63%</t>
+          <t>42,24%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>40,35%</t>
+          <t>39,66%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>44,94%</t>
+          <t>45,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2591,32 +2591,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>123049</t>
+          <t>237941</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>115419</t>
+          <t>220387</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>131012</t>
+          <t>256085</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>29,92%</t>
+          <t>29,02%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>28,07%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>31,86%</t>
+          <t>31,24%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2626,32 +2626,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>273172</t>
+          <t>553060</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>261625</t>
+          <t>524656</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>285074</t>
+          <t>580477</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>35,78%</t>
+          <t>35,32%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>34,27%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>37,07%</t>
         </is>
       </c>
     </row>
@@ -2669,32 +2669,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>139874</t>
+          <t>316026</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>132262</t>
+          <t>296198</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>149036</t>
+          <t>335835</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>39,72%</t>
+          <t>42,36%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>37,55%</t>
+          <t>39,7%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>42,32%</t>
+          <t>45,01%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2704,32 +2704,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>217155</t>
+          <t>447264</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>208457</t>
+          <t>424899</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>225739</t>
+          <t>466665</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>52,8%</t>
+          <t>54,56%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>50,69%</t>
+          <t>51,83%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>54,89%</t>
+          <t>56,92%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2739,32 +2739,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>357029</t>
+          <t>763291</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>345736</t>
+          <t>734911</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>370399</t>
+          <t>790720</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>46,77%</t>
+          <t>48,74%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>45,29%</t>
+          <t>46,93%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>48,52%</t>
+          <t>50,5%</t>
         </is>
       </c>
     </row>
@@ -2782,32 +2782,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2595</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1435</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>4536</t>
+          <t>6615</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2817,32 +2817,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>12155</t>
+          <t>21719</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>9631</t>
+          <t>16305</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>15390</t>
+          <t>28198</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2852,32 +2852,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>14750</t>
+          <t>25424</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>11602</t>
+          <t>19172</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>18569</t>
+          <t>32564</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -2895,17 +2895,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>352186</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>352186</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>352186</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2930,17 +2930,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2965,17 +2965,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>763432</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>763432</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>763432</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3256,12 +3256,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>39179</t>
+          <t>39213</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>61289</t>
+          <t>62260</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3271,12 +3271,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,32%</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3291,12 +3291,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>89822</t>
+          <t>89746</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>116256</t>
+          <t>117921</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3306,12 +3306,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>31,73%</t>
+          <t>32,18%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3326,12 +3326,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>136593</t>
+          <t>137940</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>171843</t>
+          <t>171927</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3341,12 +3341,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>29,49%</t>
+          <t>29,5%</t>
         </is>
       </c>
     </row>
@@ -3369,12 +3369,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>106459</t>
+          <t>106589</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>133703</t>
+          <t>133914</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,2%</t>
+          <t>49,26%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,79%</t>
+          <t>61,89%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3404,12 +3404,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>157873</t>
+          <t>158060</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>189278</t>
+          <t>190536</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3419,12 +3419,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>43,08%</t>
+          <t>43,13%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>51,65%</t>
+          <t>52,0%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3439,12 +3439,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>272092</t>
+          <t>272575</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>313780</t>
+          <t>313683</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3454,12 +3454,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>46,69%</t>
+          <t>46,77%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>53,84%</t>
+          <t>53,82%</t>
         </is>
       </c>
     </row>
@@ -3482,12 +3482,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32980</t>
+          <t>32688</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>54877</t>
+          <t>55696</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3497,12 +3497,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,36%</t>
+          <t>25,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -3517,12 +3517,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>73222</t>
+          <t>73715</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>99869</t>
+          <t>100807</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3532,12 +3532,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>27,51%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -3552,12 +3552,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>111333</t>
+          <t>111931</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>145868</t>
+          <t>147313</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3567,12 +3567,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>25,03%</t>
+          <t>25,28%</t>
         </is>
       </c>
     </row>
@@ -3595,12 +3595,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1645</t>
+          <t>1508</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8523</t>
+          <t>8778</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3610,12 +3610,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3630,12 +3630,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>1206</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6913</t>
+          <t>6979</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3645,12 +3645,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3665,12 +3665,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>3901</t>
+          <t>3516</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>12935</t>
+          <t>13225</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3680,12 +3680,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,27%</t>
         </is>
       </c>
     </row>
@@ -3825,12 +3825,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>213458</t>
+          <t>212140</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>816308</t>
+          <t>850906</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3840,12 +3840,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>58,73%</t>
+          <t>61,22%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -3860,12 +3860,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>190956</t>
+          <t>189679</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>706450</t>
+          <t>708486</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>52,07%</t>
+          <t>52,22%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -3895,12 +3895,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>431975</t>
+          <t>435100</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1376434</t>
+          <t>1386516</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>50,11%</t>
+          <t>50,48%</t>
         </is>
       </c>
     </row>
@@ -3938,12 +3938,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>312262</t>
+          <t>289229</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>647386</t>
+          <t>648873</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>46,57%</t>
+          <t>46,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3973,12 +3973,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>275366</t>
+          <t>274536</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>553681</t>
+          <t>563659</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3988,12 +3988,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>40,81%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4008,12 +4008,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>677808</t>
+          <t>634869</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>1137002</t>
+          <t>1129208</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4023,12 +4023,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>23,11%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>41,39%</t>
+          <t>41,11%</t>
         </is>
       </c>
     </row>
@@ -4051,12 +4051,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>239212</t>
+          <t>232564</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>527961</t>
+          <t>529383</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4066,12 +4066,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>38,08%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4086,12 +4086,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>331667</t>
+          <t>339396</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>653390</t>
+          <t>658598</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4101,12 +4101,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>25,02%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>48,16%</t>
+          <t>48,54%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4121,12 +4121,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>677520</t>
+          <t>684626</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>1124499</t>
+          <t>1134647</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4136,12 +4136,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>40,94%</t>
+          <t>41,31%</t>
         </is>
       </c>
     </row>
@@ -4164,12 +4164,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6063</t>
+          <t>6650</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>40897</t>
+          <t>45786</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -4199,12 +4199,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>16725</t>
+          <t>16555</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>45582</t>
+          <t>47327</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4214,12 +4214,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>29623</t>
+          <t>28424</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>76268</t>
+          <t>76082</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4249,12 +4249,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,77%</t>
         </is>
       </c>
     </row>
@@ -4394,12 +4394,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>42870</t>
+          <t>44771</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>72140</t>
+          <t>72900</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4409,12 +4409,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>16,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4429,12 +4429,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>39322</t>
+          <t>40095</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>63200</t>
+          <t>63678</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4444,12 +4444,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>90785</t>
+          <t>91431</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>126465</t>
+          <t>129192</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4479,12 +4479,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>14,69%</t>
         </is>
       </c>
     </row>
@@ -4507,12 +4507,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>186878</t>
+          <t>185591</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>232075</t>
+          <t>231767</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4522,12 +4522,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41,49%</t>
+          <t>41,21%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>51,46%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -4542,12 +4542,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>103872</t>
+          <t>103472</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>136052</t>
+          <t>135178</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>24,11%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>31,71%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -4577,12 +4577,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>299985</t>
+          <t>298749</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>356306</t>
+          <t>356032</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4592,12 +4592,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>33,97%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>40,48%</t>
         </is>
       </c>
     </row>
@@ -4620,12 +4620,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>160622</t>
+          <t>159654</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>205331</t>
+          <t>205564</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4635,12 +4635,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>35,66%</t>
+          <t>35,45%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>45,59%</t>
+          <t>45,64%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4655,12 +4655,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>230114</t>
+          <t>232364</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>265485</t>
+          <t>267332</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4670,12 +4670,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>53,63%</t>
+          <t>54,15%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>61,87%</t>
+          <t>62,3%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4690,12 +4690,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>402625</t>
+          <t>400607</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>458935</t>
+          <t>460268</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>45,78%</t>
+          <t>45,55%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>52,18%</t>
+          <t>52,33%</t>
         </is>
       </c>
     </row>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6314</t>
+          <t>6212</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4768,12 +4768,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5807</t>
+          <t>5356</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17880</t>
+          <t>17938</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4783,12 +4783,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4803,12 +4803,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>5857</t>
+          <t>5985</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>19584</t>
+          <t>18706</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4818,12 +4818,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,13%</t>
         </is>
       </c>
     </row>
@@ -4963,12 +4963,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>319934</t>
+          <t>316539</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1038535</t>
+          <t>1031389</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -4978,12 +4978,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>50,49%</t>
+          <t>50,15%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -4998,12 +4998,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>348913</t>
+          <t>347523</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>990905</t>
+          <t>912759</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5013,12 +5013,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>46,04%</t>
+          <t>42,41%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5033,12 +5033,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>700116</t>
+          <t>696865</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1679906</t>
+          <t>1814379</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5048,12 +5048,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>16,56%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>39,91%</t>
+          <t>43,11%</t>
         </is>
       </c>
     </row>
@@ -5076,12 +5076,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>570672</t>
+          <t>577021</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>981593</t>
+          <t>982985</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5091,12 +5091,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>27,75%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>47,72%</t>
+          <t>47,79%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5111,12 +5111,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>523710</t>
+          <t>534893</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>843478</t>
+          <t>844370</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5126,12 +5126,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>24,85%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>39,19%</t>
+          <t>39,23%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5146,12 +5146,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>1274610</t>
+          <t>1221106</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>1769600</t>
+          <t>1760739</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5161,12 +5161,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>42,04%</t>
+          <t>41,83%</t>
         </is>
       </c>
     </row>
@@ -5189,12 +5189,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>426839</t>
+          <t>442295</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>755016</t>
+          <t>755947</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>36,71%</t>
+          <t>36,75%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -5224,12 +5224,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>576002</t>
+          <t>637147</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>988899</t>
+          <t>983396</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5239,12 +5239,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>26,76%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>45,95%</t>
+          <t>45,69%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -5259,12 +5259,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>1190089</t>
+          <t>1164330</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>1696603</t>
+          <t>1696018</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5274,12 +5274,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>27,66%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>40,31%</t>
+          <t>40,29%</t>
         </is>
       </c>
     </row>
@@ -5302,12 +5302,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>11303</t>
+          <t>12307</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>47800</t>
+          <t>49114</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5317,12 +5317,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5337,12 +5337,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>26873</t>
+          <t>27976</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>58049</t>
+          <t>58542</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5352,12 +5352,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5372,12 +5372,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>45060</t>
+          <t>46238</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>93217</t>
+          <t>95821</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5387,12 +5387,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,28%</t>
         </is>
       </c>
     </row>
@@ -8286,12 +8286,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16311</t>
+          <t>14981</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36760</t>
+          <t>36631</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -8301,12 +8301,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>40,29%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -8321,12 +8321,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17881</t>
+          <t>17898</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>33318</t>
+          <t>34076</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -8336,12 +8336,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>19,62%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>36,52%</t>
+          <t>37,35%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -8356,12 +8356,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>36979</t>
+          <t>37567</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>63931</t>
+          <t>63434</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -8371,12 +8371,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>34,77%</t>
         </is>
       </c>
     </row>
@@ -8399,12 +8399,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24839</t>
+          <t>24811</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>45056</t>
+          <t>44503</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -8414,12 +8414,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,23%</t>
+          <t>27,2%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>49,39%</t>
+          <t>48,78%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -8434,12 +8434,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23768</t>
+          <t>24337</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>39501</t>
+          <t>41755</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -8449,12 +8449,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>26,05%</t>
+          <t>26,68%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>43,3%</t>
+          <t>45,77%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -8469,12 +8469,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>54120</t>
+          <t>52544</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>80339</t>
+          <t>79171</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -8484,12 +8484,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>28,8%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>44,03%</t>
+          <t>43,39%</t>
         </is>
       </c>
     </row>
@@ -8512,12 +8512,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19383</t>
+          <t>18944</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37524</t>
+          <t>37491</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -8527,12 +8527,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>41,13%</t>
+          <t>41,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -8547,12 +8547,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>21959</t>
+          <t>21579</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>37808</t>
+          <t>36664</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -8562,12 +8562,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>24,07%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>41,44%</t>
+          <t>40,19%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -8582,12 +8582,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>44011</t>
+          <t>45389</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>68776</t>
+          <t>70494</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -8597,12 +8597,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>37,7%</t>
+          <t>38,64%</t>
         </is>
       </c>
     </row>
@@ -8625,12 +8625,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>1505</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14960</t>
+          <t>14338</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -8640,12 +8640,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -8660,12 +8660,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2233</t>
+          <t>2279</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11011</t>
+          <t>11797</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -8675,12 +8675,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -8695,12 +8695,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>5491</t>
+          <t>5991</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>22221</t>
+          <t>20416</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -8710,12 +8710,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>11,19%</t>
         </is>
       </c>
     </row>
@@ -8855,12 +8855,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51818</t>
+          <t>52322</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>72886</t>
+          <t>72942</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -8870,12 +8870,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -8890,12 +8890,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>48556</t>
+          <t>48551</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68290</t>
+          <t>68603</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -8905,12 +8905,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -8925,12 +8925,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>106285</t>
+          <t>104884</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>134334</t>
+          <t>132901</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -8940,12 +8940,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>19,57%</t>
         </is>
       </c>
     </row>
@@ -8968,12 +8968,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>129490</t>
+          <t>129542</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>154607</t>
+          <t>155207</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -8983,12 +8983,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>37,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>45,22%</t>
+          <t>45,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -9003,12 +9003,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>84260</t>
+          <t>84226</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>107069</t>
+          <t>108811</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -9018,12 +9018,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>24,98%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>31,74%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -9038,12 +9038,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>220740</t>
+          <t>220964</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>255461</t>
+          <t>256043</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -9053,12 +9053,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>32,54%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>37,7%</t>
         </is>
       </c>
     </row>
@@ -9081,12 +9081,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>120143</t>
+          <t>118249</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>145054</t>
+          <t>143871</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -9096,12 +9096,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,14%</t>
+          <t>34,59%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,43%</t>
+          <t>42,08%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -9116,12 +9116,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>157066</t>
+          <t>155627</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>181982</t>
+          <t>181397</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -9131,12 +9131,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>46,57%</t>
+          <t>46,14%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>53,96%</t>
+          <t>53,78%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -9151,12 +9151,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>282776</t>
+          <t>282091</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>319352</t>
+          <t>318282</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -9166,12 +9166,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>41,64%</t>
+          <t>41,54%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>47,02%</t>
+          <t>46,86%</t>
         </is>
       </c>
     </row>
@@ -9194,12 +9194,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3500</t>
+          <t>3379</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10335</t>
+          <t>10574</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -9209,12 +9209,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -9229,12 +9229,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>10016</t>
+          <t>9839</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>21696</t>
+          <t>21281</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -9244,12 +9244,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -9264,12 +9264,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>15502</t>
+          <t>15112</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>28698</t>
+          <t>28199</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -9279,12 +9279,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -9424,12 +9424,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23996</t>
+          <t>24135</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>38355</t>
+          <t>37745</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -9439,12 +9439,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -9459,12 +9459,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>18742</t>
+          <t>19611</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>31735</t>
+          <t>32359</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -9474,12 +9474,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -9494,12 +9494,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>46566</t>
+          <t>45655</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>66139</t>
+          <t>64609</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -9509,12 +9509,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>13,21%</t>
         </is>
       </c>
     </row>
@@ -9537,12 +9537,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>66328</t>
+          <t>67360</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>85022</t>
+          <t>87061</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -9552,12 +9552,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>30,83%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>38,91%</t>
+          <t>39,85%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -9572,12 +9572,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>44634</t>
+          <t>44710</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>62487</t>
+          <t>63086</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -9587,12 +9587,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -9607,12 +9607,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>116707</t>
+          <t>116244</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>143275</t>
+          <t>143002</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -9622,12 +9622,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>23,76%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>29,23%</t>
         </is>
       </c>
     </row>
@@ -9650,12 +9650,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>101806</t>
+          <t>100928</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>121383</t>
+          <t>121688</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -9665,12 +9665,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>46,6%</t>
+          <t>46,19%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>55,56%</t>
+          <t>55,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -9685,12 +9685,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>164077</t>
+          <t>165135</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>185518</t>
+          <t>186710</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -9700,12 +9700,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>60,61%</t>
+          <t>61,0%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>68,53%</t>
+          <t>68,97%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -9720,12 +9720,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>273486</t>
+          <t>272772</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>301484</t>
+          <t>304665</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -9735,12 +9735,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>55,91%</t>
+          <t>55,76%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>61,63%</t>
+          <t>62,28%</t>
         </is>
       </c>
     </row>
@@ -9763,12 +9763,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>147</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2028</t>
+          <t>2087</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -9783,7 +9783,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -9798,12 +9798,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>12193</t>
+          <t>12381</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>23969</t>
+          <t>23361</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -9813,12 +9813,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -9833,12 +9833,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>12633</t>
+          <t>12732</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>24260</t>
+          <t>24314</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -9848,12 +9848,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,97%</t>
         </is>
       </c>
     </row>
@@ -9993,12 +9993,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>101094</t>
+          <t>100658</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>135816</t>
+          <t>133340</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -10008,12 +10008,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>20,46%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -10028,12 +10028,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>92687</t>
+          <t>94638</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>122493</t>
+          <t>122644</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -10043,12 +10043,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -10063,12 +10063,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>202185</t>
+          <t>200889</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>244222</t>
+          <t>244676</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -10078,12 +10078,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>18,11%</t>
         </is>
       </c>
     </row>
@@ -10106,12 +10106,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>235037</t>
+          <t>233158</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>272913</t>
+          <t>270573</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -10121,12 +10121,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>36,07%</t>
+          <t>35,78%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>41,88%</t>
+          <t>41,53%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -10141,12 +10141,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>164556</t>
+          <t>164617</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>198475</t>
+          <t>198055</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -10156,12 +10156,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -10176,12 +10176,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>405938</t>
+          <t>410833</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>457205</t>
+          <t>461922</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -10191,12 +10191,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>30,05%</t>
+          <t>30,41%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>33,85%</t>
+          <t>34,2%</t>
         </is>
       </c>
     </row>
@@ -10219,12 +10219,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>250824</t>
+          <t>251235</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>289348</t>
+          <t>290365</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -10234,12 +10234,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>38,56%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>44,41%</t>
+          <t>44,56%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -10254,12 +10254,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>354049</t>
+          <t>354505</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>393114</t>
+          <t>391852</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -10269,12 +10269,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>50,64%</t>
+          <t>50,7%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>56,22%</t>
+          <t>56,04%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -10289,12 +10289,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>616878</t>
+          <t>616903</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>673633</t>
+          <t>669397</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -10309,7 +10309,7 @@
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>49,87%</t>
+          <t>49,56%</t>
         </is>
       </c>
     </row>
@@ -10332,12 +10332,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7622</t>
+          <t>7804</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>22119</t>
+          <t>22106</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -10347,7 +10347,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -10367,12 +10367,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>29570</t>
+          <t>29395</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>47902</t>
+          <t>46543</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -10382,12 +10382,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -10402,12 +10402,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>39316</t>
+          <t>39411</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>61924</t>
+          <t>62422</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -10417,12 +10417,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,62%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/IMC_CAT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IMC_CAT-Estudios-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grado de obesidad del entrevistado en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Grado de obesidad del entrevistado en Andalucia (tasa de respuesta: 96,4%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12041</t>
+          <t>56327</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8109</t>
+          <t>44420</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16582</t>
+          <t>69468</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>24856</t>
+          <t>114768</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>19301</t>
+          <t>101149</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>31410</t>
+          <t>131061</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>28,67%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>27,0%</t>
+          <t>32,74%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>249</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>36898</t>
+          <t>171095</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>30312</t>
+          <t>154867</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>44500</t>
+          <t>191903</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>26,61%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>29,85%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38366</t>
+          <t>131021</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33081</t>
+          <t>116976</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44652</t>
+          <t>146343</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>52,55%</t>
+          <t>54,0%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>45,31%</t>
+          <t>48,21%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,16%</t>
+          <t>60,31%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>301</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>43012</t>
+          <t>189080</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36379</t>
+          <t>173996</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>50085</t>
+          <t>206025</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,97%</t>
+          <t>47,23%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>43,46%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>43,05%</t>
+          <t>51,47%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>450</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>81378</t>
+          <t>320100</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>73258</t>
+          <t>299351</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>91068</t>
+          <t>341488</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>42,98%</t>
+          <t>49,79%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>38,69%</t>
+          <t>46,56%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>48,09%</t>
+          <t>53,11%</t>
         </is>
       </c>
     </row>
@@ -957,107 +957,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22591</t>
+          <t>50766</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17330</t>
+          <t>39164</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27819</t>
+          <t>63755</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,94%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>38,11%</t>
+          <t>26,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>46445</t>
+          <t>93210</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>39457</t>
+          <t>80424</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>52619</t>
+          <t>109170</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>33,91%</t>
+          <t>20,09%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>45,22%</t>
+          <t>27,27%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>200</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>69036</t>
+          <t>143976</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>59777</t>
+          <t>124704</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>77164</t>
+          <t>162549</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>36,46%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>31,57%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>40,75%</t>
+          <t>25,28%</t>
         </is>
       </c>
     </row>
@@ -1070,107 +1070,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>9464</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,01%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2036</t>
+          <t>3261</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>794</t>
+          <t>1158</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5061</t>
+          <t>7030</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>2041</t>
+          <t>7793</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>3743</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>5317</t>
+          <t>13909</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,16%</t>
         </is>
       </c>
     </row>
@@ -1183,22 +1183,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>274</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73004</t>
+          <t>242646</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>73004</t>
+          <t>242646</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>73004</t>
+          <t>242646</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1218,22 +1218,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>636</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>116349</t>
+          <t>400319</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>116349</t>
+          <t>400319</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>116349</t>
+          <t>400319</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1253,22 +1253,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>910</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>189353</t>
+          <t>642964</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>189353</t>
+          <t>642964</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>189353</t>
+          <t>642964</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1300,107 +1300,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79993</t>
+          <t>199581</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69172</t>
+          <t>170941</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>92461</t>
+          <t>228602</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>275</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63630</t>
+          <t>196576</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>55272</t>
+          <t>174095</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>74158</t>
+          <t>220480</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>465</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143623</t>
+          <t>396157</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>128485</t>
+          <t>364266</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>158774</t>
+          <t>435618</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>17,41%</t>
         </is>
       </c>
     </row>
@@ -1413,107 +1413,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>537</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>204657</t>
+          <t>580999</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>188613</t>
+          <t>542651</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>220045</t>
+          <t>621309</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>43,81%</t>
+          <t>45,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,37%</t>
+          <t>42,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>47,1%</t>
+          <t>49,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>573</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>137580</t>
+          <t>407598</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>124162</t>
+          <t>378875</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>150977</t>
+          <t>436800</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>30,5%</t>
+          <t>32,9%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>27,52%</t>
+          <t>30,59%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>35,26%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>342237</t>
+          <t>988598</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>322669</t>
+          <t>937233</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>363419</t>
+          <t>1043836</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>37,27%</t>
+          <t>39,51%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>35,14%</t>
+          <t>37,45%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>39,57%</t>
+          <t>41,71%</t>
         </is>
       </c>
     </row>
@@ -1526,107 +1526,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>355</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>179171</t>
+          <t>467809</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>164411</t>
+          <t>428589</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>195062</t>
+          <t>511764</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,35%</t>
+          <t>37,02%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>33,92%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,75%</t>
+          <t>40,5%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>725</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>238946</t>
+          <t>604707</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>224582</t>
+          <t>573441</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>254270</t>
+          <t>638350</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>52,97%</t>
+          <t>48,82%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>49,78%</t>
+          <t>46,29%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>56,36%</t>
+          <t>51,53%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1196</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>418117</t>
+          <t>1072517</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>395601</t>
+          <t>1016743</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>438779</t>
+          <t>1120090</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>45,53%</t>
+          <t>42,86%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>43,08%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>47,78%</t>
+          <t>44,76%</t>
         </is>
       </c>
     </row>
@@ -1639,107 +1639,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3377</t>
+          <t>15209</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1675</t>
+          <t>6481</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6445</t>
+          <t>31072</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10958</t>
+          <t>29870</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>7252</t>
+          <t>19469</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>16497</t>
+          <t>45027</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>37</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>14336</t>
+          <t>45079</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>10248</t>
+          <t>30791</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>20139</t>
+          <t>65950</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,64%</t>
         </is>
       </c>
     </row>
@@ -1752,22 +1752,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1090</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>467198</t>
+          <t>1263598</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>467198</t>
+          <t>1263598</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>467198</t>
+          <t>1263598</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1787,22 +1787,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>1602</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>451114</t>
+          <t>1238752</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>451114</t>
+          <t>1238752</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>451114</t>
+          <t>1238752</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1822,22 +1822,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>2715</t>
+          <t>2692</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>918312</t>
+          <t>2502350</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>918312</t>
+          <t>2502350</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>918312</t>
+          <t>2502350</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1869,107 +1869,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19196</t>
+          <t>63055</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>13661</t>
+          <t>49669</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26482</t>
+          <t>80395</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>24408</t>
+          <t>58270</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>18796</t>
+          <t>46347</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>32140</t>
+          <t>72297</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>144</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>43604</t>
+          <t>121325</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>34807</t>
+          <t>103908</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>52862</t>
+          <t>144734</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>14,77%</t>
         </is>
       </c>
     </row>
@@ -1982,107 +1982,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>226</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>72096</t>
+          <t>228458</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>61207</t>
+          <t>203415</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>82859</t>
+          <t>252642</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>35,02%</t>
+          <t>45,76%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,73%</t>
+          <t>40,74%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,25%</t>
+          <t>50,6%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>189</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>57349</t>
+          <t>133239</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>48266</t>
+          <t>116241</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>67903</t>
+          <t>149158</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,73%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>24,18%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>26,91%</t>
+          <t>31,02%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>415</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>129445</t>
+          <t>361698</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>115488</t>
+          <t>330519</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>145338</t>
+          <t>392397</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>28,25%</t>
+          <t>36,9%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>33,72%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>40,04%</t>
         </is>
       </c>
     </row>
@@ -2095,107 +2095,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>183</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>114265</t>
+          <t>206671</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>102322</t>
+          <t>183505</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>125083</t>
+          <t>232004</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>55,5%</t>
+          <t>41,39%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>49,7%</t>
+          <t>36,75%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>60,76%</t>
+          <t>46,47%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>358</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>161873</t>
+          <t>276633</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>150128</t>
+          <t>258156</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>172123</t>
+          <t>295136</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>64,15%</t>
+          <t>57,53%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>59,49%</t>
+          <t>53,69%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>68,21%</t>
+          <t>61,38%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>541</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>276138</t>
+          <t>483305</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>259792</t>
+          <t>448930</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>292080</t>
+          <t>514182</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>60,26%</t>
+          <t>49,31%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>56,69%</t>
+          <t>45,8%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>63,74%</t>
+          <t>52,46%</t>
         </is>
       </c>
     </row>
@@ -2208,12 +2208,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>1119</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>6387</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2238,77 +2238,77 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8725</t>
+          <t>12685</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5696</t>
+          <t>7178</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13526</t>
+          <t>21282</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>9047</t>
+          <t>13805</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>5974</t>
+          <t>7430</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>13401</t>
+          <t>23324</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,38%</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>475</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>205880</t>
+          <t>499304</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>205880</t>
+          <t>499304</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>205880</t>
+          <t>499304</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2356,22 +2356,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>641</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>252354</t>
+          <t>480828</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>252354</t>
+          <t>480828</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>252354</t>
+          <t>480828</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2391,22 +2391,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1116</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>458234</t>
+          <t>980133</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>458234</t>
+          <t>980133</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>458234</t>
+          <t>980133</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2438,107 +2438,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>319</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>111230</t>
+          <t>318963</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>98600</t>
+          <t>283995</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>126969</t>
+          <t>351303</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>539</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>112894</t>
+          <t>369614</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>100444</t>
+          <t>338371</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>128257</t>
+          <t>404384</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
+          <t>19,08%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>858</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>688577</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>645402</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>735684</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>16,69%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
           <t>15,64%</t>
         </is>
       </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>688</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>224124</t>
-        </is>
-      </c>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>205690</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>243193</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="inlineStr">
-        <is>
-          <t>14,31%</t>
-        </is>
-      </c>
-      <c r="V19" s="2" t="inlineStr">
-        <is>
-          <t>13,14%</t>
-        </is>
-      </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>17,83%</t>
         </is>
       </c>
     </row>
@@ -2551,107 +2551,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>903</t>
+          <t>912</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>315119</t>
+          <t>940478</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>295870</t>
+          <t>889787</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>335771</t>
+          <t>987225</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>42,24%</t>
+          <t>46,89%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>39,66%</t>
+          <t>44,37%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>45,0%</t>
+          <t>49,22%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>1063</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>237941</t>
+          <t>729918</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>220387</t>
+          <t>693026</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>256085</t>
+          <t>766877</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>29,02%</t>
+          <t>34,43%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>26,88%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>36,18%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>553060</t>
+          <t>1670396</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>524656</t>
+          <t>1608644</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>580477</t>
+          <t>1737159</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>35,32%</t>
+          <t>40,49%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>33,51%</t>
+          <t>38,99%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>42,11%</t>
         </is>
       </c>
     </row>
@@ -2664,107 +2664,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>593</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>316026</t>
+          <t>725246</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>296198</t>
+          <t>675754</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>335835</t>
+          <t>777555</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>42,36%</t>
+          <t>36,16%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>39,7%</t>
+          <t>33,69%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>45,01%</t>
+          <t>38,77%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1275</t>
+          <t>1228</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>447264</t>
+          <t>974551</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>424899</t>
+          <t>932082</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>466665</t>
+          <t>1015666</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>54,56%</t>
+          <t>45,97%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>51,83%</t>
+          <t>43,97%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>56,92%</t>
+          <t>47,91%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>1821</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>763291</t>
+          <t>1699797</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>734911</t>
+          <t>1634956</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>790720</t>
+          <t>1763814</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>48,74%</t>
+          <t>41,2%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>46,93%</t>
+          <t>39,63%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>50,5%</t>
+          <t>42,75%</t>
         </is>
       </c>
     </row>
@@ -2777,92 +2777,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>20861</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>11769</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6615</t>
+          <t>39384</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>21719</t>
+          <t>45816</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>16305</t>
+          <t>33600</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>28198</t>
+          <t>62713</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>64</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>25424</t>
+          <t>66677</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>19172</t>
+          <t>48932</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>32564</t>
+          <t>87924</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2872,12 +2872,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,13%</t>
         </is>
       </c>
     </row>
@@ -2890,22 +2890,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2089</t>
+          <t>1839</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>746081</t>
+          <t>2005548</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>746081</t>
+          <t>2005548</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>746081</t>
+          <t>2005548</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2925,22 +2925,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2443</t>
+          <t>2879</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>819818</t>
+          <t>2119899</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>819818</t>
+          <t>2119899</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>819818</t>
+          <t>2119899</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2960,22 +2960,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4532</t>
+          <t>4718</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1565899</t>
+          <t>4125447</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1565899</t>
+          <t>4125447</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1565899</t>
+          <t>4125447</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3061,7 +3061,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grado de obesidad del entrevistado en Andalucia (tasa de respuesta: 96,4%)</t>
+          <t>Grado de obesidad del entrevistado en Barcelona (tasa de respuesta: 94,22%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3246,107 +3246,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>50124</t>
+          <t>24026</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>39213</t>
+          <t>14981</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>62260</t>
+          <t>36631</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>26,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>103309</t>
+          <t>25215</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>89746</t>
+          <t>17898</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>117921</t>
+          <t>34076</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>28,19%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>19,62%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>32,18%</t>
+          <t>37,35%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>101</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>153433</t>
+          <t>49241</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>137940</t>
+          <t>37567</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>171927</t>
+          <t>63434</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>29,5%</t>
+          <t>34,77%</t>
         </is>
       </c>
     </row>
@@ -3359,107 +3359,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>119164</t>
+          <t>34336</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>106589</t>
+          <t>24811</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>133914</t>
+          <t>44503</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>55,07%</t>
+          <t>37,64%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,26%</t>
+          <t>27,2%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,89%</t>
+          <t>48,78%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>173436</t>
+          <t>31797</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>158060</t>
+          <t>24337</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>190536</t>
+          <t>41755</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>47,33%</t>
+          <t>34,86%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>43,13%</t>
+          <t>26,68%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>52,0%</t>
+          <t>45,77%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>153</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>292600</t>
+          <t>66132</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>272575</t>
+          <t>52544</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>313683</t>
+          <t>79171</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>50,2%</t>
+          <t>36,25%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>46,77%</t>
+          <t>28,8%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>53,82%</t>
+          <t>43,39%</t>
         </is>
       </c>
     </row>
@@ -3472,107 +3472,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>42838</t>
+          <t>27253</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32688</t>
+          <t>18944</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>55696</t>
+          <t>37491</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>41,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>86528</t>
+          <t>28888</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>73715</t>
+          <t>21579</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>100807</t>
+          <t>36664</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>31,67%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>27,51%</t>
+          <t>40,19%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>138</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>129365</t>
+          <t>56140</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>111931</t>
+          <t>45389</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>147313</t>
+          <t>70494</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>30,77%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>38,64%</t>
         </is>
       </c>
     </row>
@@ -3585,107 +3585,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4254</t>
+          <t>5616</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>1505</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8778</t>
+          <t>14338</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3161</t>
+          <t>5325</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>2279</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6979</t>
+          <t>11797</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>7415</t>
+          <t>10941</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>3516</t>
+          <t>5991</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>13225</t>
+          <t>20416</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>11,19%</t>
         </is>
       </c>
     </row>
@@ -3698,22 +3698,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>216380</t>
+          <t>91230</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>216380</t>
+          <t>91230</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>216380</t>
+          <t>91230</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3733,22 +3733,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>234</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>366433</t>
+          <t>91224</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>366433</t>
+          <t>91224</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>366433</t>
+          <t>91224</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3768,22 +3768,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>411</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>582813</t>
+          <t>182454</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>582813</t>
+          <t>182454</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>582813</t>
+          <t>182454</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3815,107 +3815,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>427818</t>
+          <t>61702</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>212140</t>
+          <t>52322</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>850906</t>
+          <t>72942</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,78%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>61,22%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>128</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>378547</t>
+          <t>57547</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>189679</t>
+          <t>48551</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>708486</t>
+          <t>68603</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>52,22%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>259</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>806365</t>
+          <t>119249</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>435100</t>
+          <t>104884</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1386516</t>
+          <t>132901</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>29,36%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>50,48%</t>
+          <t>19,57%</t>
         </is>
       </c>
     </row>
@@ -3928,107 +3928,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>521305</t>
+          <t>142091</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>289229</t>
+          <t>129542</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>648873</t>
+          <t>155207</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>41,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>37,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>46,68%</t>
+          <t>45,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>216</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>420124</t>
+          <t>96152</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>274536</t>
+          <t>84226</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>563659</t>
+          <t>108811</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>28,51%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>41,55%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>533</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>941429</t>
+          <t>238243</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>634869</t>
+          <t>220964</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>1129208</t>
+          <t>256043</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>34,27%</t>
+          <t>35,08%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>32,54%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>41,11%</t>
+          <t>37,7%</t>
         </is>
       </c>
     </row>
@@ -4041,107 +4041,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>297</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>422430</t>
+          <t>131888</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>232564</t>
+          <t>118249</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>529383</t>
+          <t>143871</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,39%</t>
+          <t>38,58%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>34,59%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>38,08%</t>
+          <t>42,08%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>389</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>529159</t>
+          <t>168846</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>339396</t>
+          <t>155627</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>658598</t>
+          <t>181397</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>39,0%</t>
+          <t>50,06%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>46,14%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>48,54%</t>
+          <t>53,78%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>686</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>951589</t>
+          <t>300734</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>684626</t>
+          <t>282091</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>1134647</t>
+          <t>318282</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>34,64%</t>
+          <t>44,28%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>41,54%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>41,31%</t>
+          <t>46,86%</t>
         </is>
       </c>
     </row>
@@ -4154,107 +4154,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18459</t>
+          <t>6188</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6650</t>
+          <t>3379</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>45786</t>
+          <t>10574</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>28885</t>
+          <t>14741</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>16555</t>
+          <t>9839</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>47327</t>
+          <t>21281</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>47</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>47343</t>
+          <t>20928</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>28424</t>
+          <t>15112</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>76082</t>
+          <t>28199</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -4267,22 +4267,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1090</t>
+          <t>760</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1390012</t>
+          <t>341869</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1390012</t>
+          <t>341869</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1390012</t>
+          <t>341869</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4302,22 +4302,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>765</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1356715</t>
+          <t>337285</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1356715</t>
+          <t>337285</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1356715</t>
+          <t>337285</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4337,22 +4337,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>2692</t>
+          <t>1525</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>2746726</t>
+          <t>679154</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>2746726</t>
+          <t>679154</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>2746726</t>
+          <t>679154</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4384,107 +4384,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>57767</t>
+          <t>30189</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>44771</t>
+          <t>24135</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>72900</t>
+          <t>37745</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>50244</t>
+          <t>24693</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>40095</t>
+          <t>19611</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>63678</t>
+          <t>32359</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>149</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>108011</t>
+          <t>54882</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>91431</t>
+          <t>45655</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>129192</t>
+          <t>64609</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>13,21%</t>
         </is>
       </c>
     </row>
@@ -4497,107 +4497,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>209275</t>
+          <t>76008</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>185591</t>
+          <t>67360</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>231767</t>
+          <t>87061</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>46,47%</t>
+          <t>34,79%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41,21%</t>
+          <t>30,83%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>51,46%</t>
+          <t>39,85%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>136</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>119181</t>
+          <t>53353</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>103472</t>
+          <t>44710</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>135178</t>
+          <t>63086</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>27,77%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>31,5%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>368</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>328457</t>
+          <t>129361</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>298749</t>
+          <t>116244</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>356032</t>
+          <t>143002</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>37,35%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>33,97%</t>
+          <t>23,76%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>40,48%</t>
+          <t>29,23%</t>
         </is>
       </c>
     </row>
@@ -4610,107 +4610,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>312</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>182277</t>
+          <t>111582</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>159654</t>
+          <t>100928</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>205564</t>
+          <t>121688</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>40,47%</t>
+          <t>51,07%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>35,45%</t>
+          <t>46,19%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>45,64%</t>
+          <t>55,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>485</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>249733</t>
+          <t>175558</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>232364</t>
+          <t>165135</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>267332</t>
+          <t>186710</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>58,2%</t>
+          <t>64,85%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>54,15%</t>
+          <t>61,0%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>62,3%</t>
+          <t>68,97%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>797</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>432010</t>
+          <t>287139</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>400607</t>
+          <t>272772</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>460268</t>
+          <t>304665</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>49,12%</t>
+          <t>58,7%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>45,55%</t>
+          <t>55,76%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>52,33%</t>
+          <t>62,28%</t>
         </is>
       </c>
     </row>
@@ -4723,107 +4723,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1073</t>
+          <t>706</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>147</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6212</t>
+          <t>2087</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9945</t>
+          <t>17101</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5356</t>
+          <t>12381</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17938</t>
+          <t>23361</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>51</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>11018</t>
+          <t>17807</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>5985</t>
+          <t>12732</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>18706</t>
+          <t>24314</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>4,97%</t>
         </is>
       </c>
     </row>
@@ -4836,22 +4836,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>628</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>450392</t>
+          <t>218485</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>450392</t>
+          <t>218485</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>450392</t>
+          <t>218485</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -4871,22 +4871,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>737</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>429103</t>
+          <t>270705</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>429103</t>
+          <t>270705</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>429103</t>
+          <t>270705</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -4906,22 +4906,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1116</t>
+          <t>1365</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>879496</t>
+          <t>489189</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>879496</t>
+          <t>489189</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>879496</t>
+          <t>489189</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -4953,107 +4953,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>256</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>535709</t>
+          <t>115917</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>316539</t>
+          <t>100658</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1031389</t>
+          <t>133340</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>26,05%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>50,15%</t>
+          <t>20,46%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>253</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>532100</t>
+          <t>107455</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>347523</t>
+          <t>94638</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>912759</t>
+          <t>122644</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>42,41%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>509</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1067809</t>
+          <t>223373</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>696865</t>
+          <t>200889</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1814379</t>
+          <t>244676</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>25,37%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>43,11%</t>
+          <t>18,11%</t>
         </is>
       </c>
     </row>
@@ -5066,107 +5066,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>617</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>849745</t>
+          <t>252435</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>577021</t>
+          <t>233158</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>982985</t>
+          <t>270573</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>41,31%</t>
+          <t>38,74%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>28,05%</t>
+          <t>35,78%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>47,79%</t>
+          <t>41,53%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1063</t>
+          <t>437</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>712741</t>
+          <t>181301</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>534893</t>
+          <t>164617</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>844370</t>
+          <t>198055</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>25,93%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>24,85%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>39,23%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1054</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>1562486</t>
+          <t>433736</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>1221106</t>
+          <t>410833</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>1760739</t>
+          <t>461922</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>37,12%</t>
+          <t>32,11%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>30,41%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>41,83%</t>
+          <t>34,2%</t>
         </is>
       </c>
     </row>
@@ -5179,107 +5179,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>666</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>647545</t>
+          <t>270723</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>442295</t>
+          <t>251235</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>755947</t>
+          <t>290365</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>38,56%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>36,75%</t>
+          <t>44,56%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1228</t>
+          <t>955</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>865420</t>
+          <t>373290</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>637147</t>
+          <t>354505</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>983396</t>
+          <t>391852</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>40,21%</t>
+          <t>53,39%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>50,7%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>45,69%</t>
+          <t>56,04%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1821</t>
+          <t>1621</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>1512965</t>
+          <t>644013</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>1164330</t>
+          <t>616903</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>1696018</t>
+          <t>669397</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>47,68%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>45,67%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>40,29%</t>
+          <t>49,56%</t>
         </is>
       </c>
     </row>
@@ -5292,107 +5292,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>23786</t>
+          <t>12509</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>12307</t>
+          <t>7804</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>49114</t>
+          <t>22106</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>41990</t>
+          <t>37166</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>27976</t>
+          <t>29395</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>58542</t>
+          <t>46543</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>117</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>65776</t>
+          <t>49676</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>46238</t>
+          <t>39411</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>95821</t>
+          <t>62422</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>4,62%</t>
         </is>
       </c>
     </row>
@@ -5405,22 +5405,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1839</t>
+          <t>1565</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2056784</t>
+          <t>651584</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2056784</t>
+          <t>651584</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2056784</t>
+          <t>651584</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5440,22 +5440,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2879</t>
+          <t>1736</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2152251</t>
+          <t>699213</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2152251</t>
+          <t>699213</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2152251</t>
+          <t>699213</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5475,22 +5475,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4718</t>
+          <t>3301</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>4209035</t>
+          <t>1350797</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>4209035</t>
+          <t>1350797</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4209035</t>
+          <t>1350797</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -8091,7 +8091,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grado de obesidad del entrevistado en Barcelona (tasa de respuesta: 94,22%)</t>
+          <t>Grado de obesidad del entrevistado en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8276,107 +8276,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24026</t>
+          <t>12041</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14981</t>
+          <t>8109</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36631</t>
+          <t>16582</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,34%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>40,15%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>25215</t>
+          <t>24856</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17898</t>
+          <t>19301</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>34076</t>
+          <t>31410</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>37,35%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>128</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>49241</t>
+          <t>36898</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>37567</t>
+          <t>30312</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>63434</t>
+          <t>44500</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>19,49%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>34,77%</t>
+          <t>23,5%</t>
         </is>
       </c>
     </row>
@@ -8389,107 +8389,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>34336</t>
+          <t>38366</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24811</t>
+          <t>33081</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44503</t>
+          <t>44652</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,64%</t>
+          <t>52,55%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,2%</t>
+          <t>45,31%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>48,78%</t>
+          <t>61,16%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>162</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31797</t>
+          <t>43012</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24337</t>
+          <t>36379</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>41755</t>
+          <t>50085</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>34,86%</t>
+          <t>36,97%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>45,77%</t>
+          <t>43,05%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>289</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>66132</t>
+          <t>81378</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>52544</t>
+          <t>73258</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>79171</t>
+          <t>91068</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>36,25%</t>
+          <t>42,98%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>38,69%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>43,39%</t>
+          <t>48,09%</t>
         </is>
       </c>
     </row>
@@ -8502,107 +8502,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27253</t>
+          <t>22591</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18944</t>
+          <t>17330</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37491</t>
+          <t>27819</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>30,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>41,1%</t>
+          <t>38,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>28888</t>
+          <t>46445</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>21579</t>
+          <t>39457</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>36664</t>
+          <t>52619</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>31,67%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>33,91%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>40,19%</t>
+          <t>45,22%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>226</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>56140</t>
+          <t>69036</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>45389</t>
+          <t>59777</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>70494</t>
+          <t>77164</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>30,77%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>31,57%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>40,75%</t>
         </is>
       </c>
     </row>
@@ -8615,107 +8615,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,01%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0,04%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>5616</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1505</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>14338</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>6,16%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,65%</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>15,72%</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5325</t>
+          <t>2036</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2279</t>
+          <t>794</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11797</t>
+          <t>5061</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>10941</t>
+          <t>2041</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>5991</t>
+          <t>777</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>20416</t>
+          <t>5317</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>2,81%</t>
         </is>
       </c>
     </row>
@@ -8728,22 +8728,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>91230</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91230</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>91230</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -8763,22 +8763,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>415</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>91224</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>91224</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>91224</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -8798,22 +8798,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>652</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>182454</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>182454</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>182454</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -8845,107 +8845,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>246</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>61702</t>
+          <t>79993</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52322</t>
+          <t>69172</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>72942</t>
+          <t>92461</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>197</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>57547</t>
+          <t>63630</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>48551</t>
+          <t>55272</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68603</t>
+          <t>74158</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>443</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>119249</t>
+          <t>143623</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>104884</t>
+          <t>128485</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>132901</t>
+          <t>158774</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>17,29%</t>
         </is>
       </c>
     </row>
@@ -8958,107 +8958,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>597</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>142091</t>
+          <t>204657</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>129542</t>
+          <t>188613</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>155207</t>
+          <t>220045</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>41,56%</t>
+          <t>43,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,89%</t>
+          <t>40,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>45,4%</t>
+          <t>47,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>434</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>96152</t>
+          <t>137580</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>84226</t>
+          <t>124162</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>108811</t>
+          <t>150977</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>24,97%</t>
+          <t>27,52%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>33,47%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>1031</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>238243</t>
+          <t>342237</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>220964</t>
+          <t>322669</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>256043</t>
+          <t>363419</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>35,08%</t>
+          <t>37,27%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>32,54%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>37,7%</t>
+          <t>39,57%</t>
         </is>
       </c>
     </row>
@@ -9071,107 +9071,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>499</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>131888</t>
+          <t>179171</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>118249</t>
+          <t>164411</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>143871</t>
+          <t>195062</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>38,35%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,59%</t>
+          <t>35,19%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,08%</t>
+          <t>41,75%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>697</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>168846</t>
+          <t>238946</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>155627</t>
+          <t>224582</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>181397</t>
+          <t>254270</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,06%</t>
+          <t>52,97%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>46,14%</t>
+          <t>49,78%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>53,78%</t>
+          <t>56,36%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>1196</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>300734</t>
+          <t>418117</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>282091</t>
+          <t>395601</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>318282</t>
+          <t>438779</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>44,28%</t>
+          <t>45,53%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>41,54%</t>
+          <t>43,08%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>46,86%</t>
+          <t>47,78%</t>
         </is>
       </c>
     </row>
@@ -9184,107 +9184,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6188</t>
+          <t>3377</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3379</t>
+          <t>1675</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10574</t>
+          <t>6445</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>14741</t>
+          <t>10958</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>9839</t>
+          <t>7252</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>21281</t>
+          <t>16497</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>20928</t>
+          <t>14336</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>15112</t>
+          <t>10248</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>28199</t>
+          <t>20139</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>2,19%</t>
         </is>
       </c>
     </row>
@@ -9297,22 +9297,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>1353</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>341869</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>341869</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>341869</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -9332,22 +9332,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>337285</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>337285</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>337285</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -9367,22 +9367,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1525</t>
+          <t>2715</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>679154</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>679154</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>679154</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -9414,37 +9414,37 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>30189</t>
+          <t>19196</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>24135</t>
+          <t>13661</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>37745</t>
+          <t>26482</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -9454,67 +9454,67 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>24693</t>
+          <t>24408</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>19611</t>
+          <t>18796</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>32359</t>
+          <t>32140</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>117</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>54882</t>
+          <t>43604</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>45655</t>
+          <t>34807</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>52862</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>11,54%</t>
         </is>
       </c>
     </row>
@@ -9527,107 +9527,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>76008</t>
+          <t>72096</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>67360</t>
+          <t>61207</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>87061</t>
+          <t>82859</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>35,02%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,83%</t>
+          <t>29,73%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>39,85%</t>
+          <t>40,25%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>151</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>53353</t>
+          <t>57349</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>44710</t>
+          <t>48266</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>63086</t>
+          <t>67903</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>330</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>129361</t>
+          <t>129445</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>116244</t>
+          <t>115488</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>143002</t>
+          <t>145338</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>26,44%</t>
+          <t>28,25%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>25,2%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>29,23%</t>
+          <t>31,72%</t>
         </is>
       </c>
     </row>
@@ -9640,107 +9640,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>269</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>111582</t>
+          <t>114265</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>100928</t>
+          <t>102322</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>121688</t>
+          <t>125083</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>51,07%</t>
+          <t>55,5%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>46,19%</t>
+          <t>49,7%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>55,7%</t>
+          <t>60,76%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>419</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>175558</t>
+          <t>161873</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>165135</t>
+          <t>150128</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>186710</t>
+          <t>172123</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>64,85%</t>
+          <t>64,15%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>61,0%</t>
+          <t>59,49%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>68,97%</t>
+          <t>68,21%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>688</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>287139</t>
+          <t>276138</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>272772</t>
+          <t>259792</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>304665</t>
+          <t>292080</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>58,7%</t>
+          <t>60,26%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>55,76%</t>
+          <t>56,69%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>62,28%</t>
+          <t>63,74%</t>
         </is>
       </c>
     </row>
@@ -9753,107 +9753,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>323</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2087</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17101</t>
+          <t>8725</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>12381</t>
+          <t>5696</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>23361</t>
+          <t>13526</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>30</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>17807</t>
+          <t>9047</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>12732</t>
+          <t>5974</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>24314</t>
+          <t>13401</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>2,92%</t>
         </is>
       </c>
     </row>
@@ -9866,22 +9866,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>499</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>218485</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>218485</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>218485</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -9901,22 +9901,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>270705</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>270705</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>270705</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -9936,22 +9936,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1365</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>489189</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>489189</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>489189</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -9983,107 +9983,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>337</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>115917</t>
+          <t>111230</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>100658</t>
+          <t>98600</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>133340</t>
+          <t>126969</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>351</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>107455</t>
+          <t>112894</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>94638</t>
+          <t>100444</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>122644</t>
+          <t>128257</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>688</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>223373</t>
+          <t>224124</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>200889</t>
+          <t>205690</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>244676</t>
+          <t>243193</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>15,53%</t>
         </is>
       </c>
     </row>
@@ -10096,107 +10096,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>903</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>252435</t>
+          <t>315119</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>233158</t>
+          <t>295870</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>270573</t>
+          <t>335771</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>38,74%</t>
+          <t>42,24%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>35,78%</t>
+          <t>39,66%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>41,53%</t>
+          <t>45,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>747</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>181301</t>
+          <t>237941</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>164617</t>
+          <t>220387</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>198055</t>
+          <t>256085</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>25,93%</t>
+          <t>29,02%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>31,24%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1054</t>
+          <t>1650</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>433736</t>
+          <t>553060</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>410833</t>
+          <t>524656</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>461922</t>
+          <t>580477</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>32,11%</t>
+          <t>35,32%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>30,41%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>34,2%</t>
+          <t>37,07%</t>
         </is>
       </c>
     </row>
@@ -10209,107 +10209,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>835</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>270723</t>
+          <t>316026</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>251235</t>
+          <t>296198</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>290365</t>
+          <t>335835</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>41,55%</t>
+          <t>42,36%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>38,56%</t>
+          <t>39,7%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>45,01%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>955</t>
+          <t>1275</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>373290</t>
+          <t>447264</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>354505</t>
+          <t>424899</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>391852</t>
+          <t>466665</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>53,39%</t>
+          <t>54,56%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>50,7%</t>
+          <t>51,83%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>56,04%</t>
+          <t>56,92%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1621</t>
+          <t>2110</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>644013</t>
+          <t>763291</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>616903</t>
+          <t>734911</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>669397</t>
+          <t>790720</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>47,68%</t>
+          <t>48,74%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>45,67%</t>
+          <t>46,93%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>49,56%</t>
+          <t>50,5%</t>
         </is>
       </c>
     </row>
@@ -10322,107 +10322,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>12509</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7804</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>22106</t>
+          <t>6615</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>37166</t>
+          <t>21719</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>29395</t>
+          <t>16305</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>46543</t>
+          <t>28198</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>84</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>49676</t>
+          <t>25424</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>39411</t>
+          <t>19172</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>62422</t>
+          <t>32564</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -10435,22 +10435,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1565</t>
+          <t>2089</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>651584</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>651584</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>651584</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -10470,22 +10470,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1736</t>
+          <t>2443</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>699213</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>699213</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>699213</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -10505,22 +10505,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3301</t>
+          <t>4532</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1350797</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1350797</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1350797</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
